--- a/InputData/fuels/MPIiFE/Max Perc Inc in Fuel Exports.xlsx
+++ b/InputData/fuels/MPIiFE/Max Perc Inc in Fuel Exports.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\fuels\MPIiFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\fuels\MPIiFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DA96A0BD3C2F1998A30303EE8B7864206D63475F" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28185" windowHeight="12510"/>
+    <workbookView xWindow="10800" yWindow="1575" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -164,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,10 +504,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -590,13 +593,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3197,6 +3202,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3205,23 +3219,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C89C663-F070-4A5A-B406-DBC753B23E7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C89C663-F070-4A5A-B406-DBC753B23E7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B39103B3-E20D-4CB4-BD58-E22C9F8B4573}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACCDE88-3817-4458-9F46-50E74EA3FA93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACCDE88-3817-4458-9F46-50E74EA3FA93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B39103B3-E20D-4CB4-BD58-E22C9F8B4573}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>